--- a/data/5 пункт.xlsx
+++ b/data/5 пункт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programProjects\C++\vpv1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1311121F-49A8-47BD-8F63-57862F866579}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875AFC4D-0C0C-4C61-8CCF-D9E9CFBAFEA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{27F377AA-0E54-4783-9D77-C2C9903959C9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{27F377AA-0E54-4783-9D77-C2C9903959C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -36993,7 +36993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6685A335-A754-48DE-ABDF-172122F505E3}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
@@ -55031,7 +55031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B64415-228F-4AAD-B4BF-FBDB52412937}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
